--- a/filedatabase/phongban.xlsx
+++ b/filedatabase/phongban.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,9 +21,6 @@
     <t>tenPhongBan</t>
   </si>
   <si>
-    <t>username</t>
-  </si>
-  <si>
     <t>password</t>
   </si>
   <si>
@@ -43,6 +40,9 @@
   </si>
   <si>
     <t>Phong Cong tac sinh vien</t>
+  </si>
+  <si>
+    <t>_id</t>
   </si>
 </sst>
 </file>
@@ -384,7 +384,7 @@
   <dimension ref="B2:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -396,10 +396,10 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
       </c>
       <c r="D2" t="s">
         <v>0</v>
@@ -407,35 +407,35 @@
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>11111111</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>11111111</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>11111111</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
